--- a/SysSettings 10년 단위.xlsx
+++ b/SysSettings 10년 단위.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\류미송\Desktop\DemoS_004- kumar\DemoS_004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C664E06-D0BF-4EF0-A3AE-5DA675AF912C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C33E05F-9018-4695-9A33-BA05F46E039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3394,7 +3394,7 @@
   <dimension ref="B3:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3441,37 +3441,27 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
-        <v>2</v>
-      </c>
-      <c r="C14" s="15">
-        <v>3</v>
-      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="15">
-        <v>3</v>
-      </c>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
-      <c r="C16" s="15">
-        <v>3</v>
-      </c>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="C17" s="15">
-        <v>2</v>
-      </c>
+      <c r="C17" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
